--- a/Experiments_Code/Motion_Compensation_Experiment/Motion_Experiment_LowFilt.xlsx
+++ b/Experiments_Code/Motion_Compensation_Experiment/Motion_Experiment_LowFilt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamin\Desktop\LiDAR_Motion_Comp_Feature_Extract_Repo\LiDAR-Motion-Compensation-and-Feature-Extraction\Experiments_Code\Motion_Compensation_Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3497CE66-C17E-4021-9A1F-070714A1AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C855AB55-975C-4695-A940-EA91B511BE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0A808E4-A613-4BE3-9403-07938B2E856F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0A808E4-A613-4BE3-9403-07938B2E856F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5726,7 +5726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448AEF40-F6C5-4FA4-8E0C-D417D3E3E30A}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
